--- a/total.xlsx
+++ b/total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SOIEUM:소름</t>
+          <t xml:space="preserve">  AJH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>마지막 개웃겨 ㅋㅋㅋ 어떻게 기대를 저버리지 않고 매일 웃기지?  ㅋㅋ</t>
+          <t>맛있게 드셨다니 다행이네요ㅎ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  황철준</t>
+          <t xml:space="preserve">  a k</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>항상보면 해성이형 없을 때 해성이형 이야기하는데 너무좋다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>아니 진짜 형주님 뭐하시는분이에요 뭔데 요리 진짜 잘함? 쪽갈비 김치찜이랑 쪽갈비 바베큐하는데 거의 주부경력 10년 어머님들급으로 거침없이 양념하고 준비하는거 베테랑 주부님들이랑 모습이 겹쳐서 놀랍네요.. 이게 요섹남인가?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  둥둥</t>
+          <t xml:space="preserve">  형주부인</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>조지 불쑥불쑥 튀어나오는 거 개귀여워.. 많이 출연해줘..ㅎㅎㅎ ☺️☺️ 4:00 4:24</t>
+          <t>송형주 날이 갈수록 귀여워지네 .. ️‍4:18 저절로 웃게 돼 ㅋㅋㅋㅋ ㅜ ㅜ가요제 영상도 얼른 보고싶다 .. 기대중 !</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김철민</t>
+          <t xml:space="preserve">  대균</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>배말랭 증말 입담꾼ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>5:16고기 먼저 먹으려고 했는데 형주형이 김치 먼저 먹어보란 말에 젓가락 옮기는 선응이형 너무 착해... 말 너무 잘들엉ㅠㅠㅠㅠㅠ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  한그누</t>
+          <t xml:space="preserve">  황승현</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>개인적으로 형주형이 직접 요리하시는거 보는 맛이 있었는데 요새 안올라와서 아쉽네요 ㅜㅜ그래도 항상 재밌게 보고 있습니다 핫소스 화이팅</t>
+          <t>선응이형은 뭘해줘도 진짜 맛있게먹네</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  짱구는 옷말려</t>
+          <t xml:space="preserve">  MJ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>다들 흰옷인데 갈아입고 온 거 핵 귀엽네ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ((((형주))))</t>
+          <t>저렇게 잘해먹으면 부모님들 진짜 행복할듯</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  딸기맛있쪙</t>
+          <t xml:space="preserve">  이주헌예비신랑</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>마지막에 배말랭이 보석금 드립 개터지니까 엄청 뿌듯해하넹 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>와 진짜 비주얼 미쳤다ㅠㅠㅠㅠㅠㅠㅠ핫식당 보면서 침 최고로 많이 고인거 같아요••••집가면 등갈비 김치찜 해달라고 해야게써요,,,,,츄베릅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  바람직한사람</t>
+          <t xml:space="preserve">  댤댤</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>마지막 건우햄 끝내기ㅋㅋㅋㅋㅋ개웃기네</t>
+          <t>조지가 엉아들 대신 분량채워주는거봐ㅜㅜ 귀여워</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  피라미</t>
+          <t xml:space="preserve">  Bride of Yeshua</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>형주형… 머리를 밀어버린 이유가 있었구나….ㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>오늘은 조지가 분량 다 챙기네ㅋㅋ 형들 말이 없어서</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  댤댤</t>
+          <t xml:space="preserve">  maltesers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>다들 너무 귀엽자나 ㅠ-ㅠ ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>조지 계속 올라오는거 너무 귀엽다!!</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조희재</t>
+          <t xml:space="preserve">  Ho seung Jang</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>마지막에 보석이랑 금에서 현웃 터졌네 ㅋㅋㅋㅋㅋㅋ 아 ㅋㅋㅋ</t>
+          <t>형주형 볼때마다계량 안하고 슥슥 넣는거 진짜 신기하다요리 너무 잘해 섹시해</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  시진핑핑이</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>형주햄 선응햄 진짜 잉꼬부부같음ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ ㅋ</t>
+          <t>이때까지 보면서 뺏아먹고싶다고 생각한적은 없는데 진짜 개맛있겠다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Just? Do it!</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>핫식당 ㅋㅋ 증말 끼고 싶네 저 조합 ㅋㅋㅋㅋ</t>
+          <t>조지 ㅋㅋㅋㅋㅋㅋㅋ 오늘 형들 너무 맛있게 먹는다고 말 없어서 분량 대신 채우네 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
+          <t xml:space="preserve">  IilIliIlilliI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>마무리 좋았다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>핫소스, 배말랭, 황룡갑에 핫식당까지 같은 날 나온 역사적인 날이다</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이민지</t>
+          <t xml:space="preserve">  음뫄핫소스만보면심장이뛰어서 잠을못자</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>진지하게 우유얘기하는거 왤케 웃기냐 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>와...진짜맛있겠다,.미틴,.ㅜㅜㅜㅜ 왜 새로 올라올때마다 역대급으로 맛있어보이는거냐구요!ㅜㅜ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이준호</t>
+          <t xml:space="preserve">  송형주의 운명의 여자</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>선응이형 머리밀림의 화근</t>
+          <t>0:08 와 오빠 그거 ㅠㅠ 내가 ㅠㅠ 준 거야 ㅠㅠ 대박 🥹🥹 너무 좋아서 손 떨려 송형주 사랑한다️</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  cutie🧸gomz</t>
+          <t xml:space="preserve">  인센티브</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>말랭씨~해장국 잘드시니깐 보기좋아여~♡♡♡</t>
+          <t>와 핫식당 역대급 비쥬얼이다... 진짜 맛있어보인다ㅜㅜ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  최은주</t>
+          <t xml:space="preserve">  음음</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>산타 성대모사 ㅈㄴ 웃겨서 30분째 보는 중 ㅋㅋㅋㅋㅋ</t>
+          <t>다음 배말랭 영상 제목팬이 주신 쪽갈비 뼈로 하루 세끼만들기</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  도니코디</t>
+          <t xml:space="preserve">  whtjddnr00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>현종이형 피 무섭 다면서 소피 먹고있음 ㅎㅎㅎ</t>
+          <t>08:47 저거 진짜 맛있었나봄 ㅋㅋㅋ 영혼없이 말하시네 ㅋㅋㅋㅋㅋ 나도 먹고 싶두아 ㅜㅜ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -836,15 +836,3015 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  서의성</t>
+          <t xml:space="preserve">  방형욱</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>배말랭 꽤나 웃김 ㅋㅋㅋ</t>
+          <t>핫소스유니버스 4개 채널 연속 업로드는 못참아~</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  로나로나</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>와 ㅠㅠㅠ조지미쳤어요 너무 귀여워서 계속 조지부분만 돌려보게되네요</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Ubiquitous</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>현종이형 왜케 귀엽지…?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  심준호</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>선응이형 맥주에 후추뿌려먹는거 알려주세요 제발요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  태키</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>핫식당 유니버스엔 아직 선응머리의 온기가... 남아있어.. 역대급 멀티버스;</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  킹성은</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>제가 드리지않은 쪽갈비네요맛있게 드시는거 보니 기분이 좋습니다 ㅎㅎ다음에 또 기회가 있다면 다른 부위로 준비하지 않겠습니다</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  애옹 미</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>해성햄 진짜 아가야.. 귀여워..</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>진짜 먹고 싶다.... 조지기분 알거 같아.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  크크루삥뽕</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>쪽갈비 주신분 흐뭇하게 보시겠다</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김민준</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>선응이 형 여기선 머리가 있네...행복해보여 좋다...!</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  경준</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>선응이형 ㅋㅋㅋ 김ㅊ 양념 쪽갈비에 묻혀놓고 덜어내는건 모야 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  아름다운 세상아</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>말없이 먹는 거만 봐도 재밌긴해 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  송형주의 운명의 여자</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5:33 맛있다고 눈 크게 뜨고 가리키는 거 진짜 개귀여움 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김수재</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>이거 보고 소맥에 후추 넣었다가 다 먹고 치울 때 까지 후추맛남 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  어잌후</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>요리를 거침없이하시네 부럽다</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  민지</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>귀여워 징챠 다들 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 🫶</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김지원</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>현종이 형도 유튜브 시작했으면 좋겠다....!!!</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  민아달려</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>선응형 형주형 해성이형 건우형 현종이형 핫식당 할때 한명씩 안나올때 뭐하는지 궁금해용 오늘은 건우햄이 없으시네용</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김사랑스럽지</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>선응행 맥주 마실 줄 아네 맥주에 후추 넣어 먹으면 은근 맛깄음</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  태지</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>6:27역시... 광고할때 너무 재밌고 시끌시끌 너무 맛있게 먹더라</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  조은</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>괴롭히는만큼 잘해먹이네 ㅋㅋㅋㅋ선응아 부럽다ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  TheBkuser</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>선응이가 맛있는거 먹을때 말안하면 말 많이한건 맛이 없다는거네... ㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  임마뭐</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>와 형주햄 요리 진.짜 잘한다</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  juds k</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6:32 선응이형 소스를 듬뿍 찍고 다 덜어서 가져가면 무슨 소용이야ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  jkjk</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>핫소스 보고 나면 배말랭 올라와 있고 배말랭 다 보면 황룡갑 올라와 있고 마지막 디저트 핫식당 루트 좋다 맛집이야</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Black</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>핫소스 소시지 가랑이에 끼우고 자르기 몰카 다시보고싶다 ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  시기</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아니 형주님이랑 결혼하시는 분 찐 행복할 듯...요리 넘 잘해,, </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  조수용</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>등갈비를 구워서 바로 물이랑 김치 넣고 찜으로 먹으면 굉장히 맛있음.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  •</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>맛과 추억칸에 들어가있네ㅋㅋㅋ ㅋ ㅠㅠ 삽귀다</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  형주내꺼</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>을매나 맛있으면 조지가 ,, 핫소스분들도 그렇고  다들 잘먹어서 뿌듯하네요</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  playerA34</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>이때까지만 해도 선응이 머리 남아있넼ㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  YUN찬</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>난 해성이형이 제일좋아 형 행복해야해 형 사랑해!!</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  야이젭</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>광고 이렇게하면 좋아하실듯ㅋㅋ 와 마싯게땅</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  jjajajan</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>맛있게 드시네요..ㅋㅋ요즘 샤로수길에 덮다에서 도전먹방하는 영상 많이 올라오는데핫소스님들도 도전 안하더라도 맛있게 먹는 모습 보고싶네요ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  우직</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>와 참치액넣는순간 고수라는거느꼈다</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  무소식이 he so sick.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋ왠지 배말랭이 저 뼈 가져다가 사골국 만들거 같은 불길한 예감...</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ㄱㅟㅇㅁㅣ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>아닛 오늘은 핫소스 유니버스가 다 모인 날이잖아? 못참아가지고 벌써왔다.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  gp 0321</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>이 쪽갈비가 드디어 나오네</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  돼지적금통</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>김선응 일본인 황룡갑 중국인 조지 영국견 ㄹㅇ 다문화 가족ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  키티키티</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>멍멍레이더 존귀♡</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  재성</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>조지 귀여웡</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Fortuito_us</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>이때는 선응이형 머리카락이 있었구나</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  유중혁</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>이제 건우형이 저 남은뼈로 사골우려서 세끼 먹으면 되겠네</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  앞날창창 도그 (민제)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6:20 선응이형 하정우님 느낌있네 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  아으</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>핫소스 배말랭 황룡갑 핫식당이 하루에 다 나오다니 이건 생일인가?</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  태리</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>코파먹는거라도 상관없으니까 1일 1영상 줘</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  우클릭</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>선응이형 머리밀리기 전이구나... 행복해보이네 ㅎㅎㅎㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  HanYong Lee</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>황룡갑이랑 동갑인 구독자만 모아서  그 중에서 사연으로 1명 초대해서 황동갑이라는 프로그램 하나만들어서 구독자랑 해성이랑같이 밥먹는 영상 매주 올라오면 재밌겠다</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  휘동이</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>쏜엥쥬 착착 감기네ㅋㅋㅋ엥쥬언니(?) 엥쥬누나(?)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  S W LEEM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>건우가없으니까 해성이 하고 상황극이 없네 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  san</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1:54누가 뿌셔뿌셔 바베큐맛을 다 먹어서 다행이다.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  B B</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>어우 비주얼 역대급이다…</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  무말랭</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>등갈비 드실 때 한조각 정도만 아무 간 하지마시고 물에 끓여서 조지 하나만 주세요ㅜ 저희 집 강아지들도 가끔 그렇게 한조각씩 주는데 앞발로 잡고 앞니로 뜯어먹는데 겁나 귀엽습니다…. 조지가 등갈비 먹을 땐 뼈를 삼킬 수 있으니 옆에서 지켜봐주세요-!!</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  단백질바</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>역시 재밌누</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  빅사이즈백살공주🌸</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>너뮤너뮤 좋아유 핫소스 유니버스 사랑한다규</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  최다음</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>선응이형 머머리 쪽 ️</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  지나가는 행인</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>선응씨 故머리카락의 생전 개쩌는모습을 관람하도록 하겠습니다..</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  갓냥이</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>이반응은 찐인데..조지도 미쳤네</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  윈도우</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>핫소스에 배말랭에 핫식당 황룡갑이건못참취~</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  애옹 미</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>오늘 쏭엥쥬햄 머리 복실복실 기욥다 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Yeeun Lee</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>맛있겠다 ㅠ</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ki kiki</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>샐러드 먹고있는데 현타오네 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김서진</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>형주형은 요리할 때가 제일 sexy 해</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  송형주 와이프</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>일본인은 아니고 일반인인데 괜찮니 형주야?</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  야옹</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>현종옹이 안먹어 ~~때문에 밥못먹는즁 왜케귀여우세여</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  이원준</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>잉 형주오빠 너무좋아</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김하준</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>핫소스 유니버스를 다보니까 좋다고 하는댯글이 많을것이다</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  song</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>맥주에 후추라.. 청양고추 넣은 소주 그런 느낌인가..?</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  주찬</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>형들 곱창 먹어주세여</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  닉네임</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>조촐한 불닭김밥와 쪽갈비 교환</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  무냫</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>김치찜 다진마늘 어디 갔어ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  또비</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>조지도 생갈비 하나 주지….</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  나다요</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>굿즈 꼭살거야</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  유진</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>광고보다 맛있게 먹네,,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  mom Chan</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>혜성이 요즘 미모 무슨 일이지 왜 잘생겨보이지 왜그런거지</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  프림포즈</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>아 침고여 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  toleta de parretto</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>이제 저걸로 사골 끓일 배말랭 출동</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  맛보기</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>해성이먹는거 진짜 중국부자같네</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김영광</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>형 머리 밀렸는데 괜찮아????…</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  국그릇핑크뽕</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>형주 음식은 못참지 핡</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  유튜</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>팬이 주신 거 이랬는데 아 그래~? 가 끝이야?ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  퍽끼럽</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>현종이형 보면 볼수록 박명수 젊었을때같음..</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Y MOMMA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>요리 잘하는거같아 눈대중으로 넣는거보니</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  핫한 쇼츠 정보들 모음</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>현종이형 유튜버 워커님 닮은듯 ㅋㅋㅋㅎ</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  조지와싱톤</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>선응이머리 이때는 정상이네</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  채원</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>맥주에 후추를?..??????</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  유너니</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  문원</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>9:01 조지ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  왕자림</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>송형주 섹시하다 사랑해️</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  bin08</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>TMI-해성이 가요제 준비중!</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ㅋ</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>언제 먹나 했네ㅋ 기다렸잖아</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  은우 오빠 바라기</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4:12 ㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅋㅎㅋㅎ</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  오리목뼈먹자는말에신난랄로쉐</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>조지 줄꺼면 그냥 대충 하나 따로 몇개 꺼내서 삶아서 조지주지 자기들만 입이여 ~</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ᄋᄋ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3:56 귀신나옴 ㄹㅇ</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  하마궁뎅이</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>볼 때마다 다라라라라 하는 브금이 너무 무서워요..ㅠ</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  바비</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>여러분 제 닉넴 추천받아요~!선응부인 선응머리카락 선응김치 선응철딱서니선응셔틀 선응떡 조지부인 선응조지"기"사랑해</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Sujin C</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>와 미치짜</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Hahahahaha89</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>룡갑이가  조지 자리 뺏었다</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  지원</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>현종이형 박명수 젊을때 닮았어</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Jungwon HWANG</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>핫데이다!</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  꽃지</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>해성이 살빠진거 같네?!</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  바보 듀댜</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>쪽~♡</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  현지</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>보면 볼 수록 현종쓰랑 조지랑 닮은거같은건 기분탓인가</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  우리들의구글생활</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>오늘도 출첵!!!!!</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  서무진</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>말랭이형 못 먹은거야..??</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  코박사</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>조지 먹을뼈가 많겠네요 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  에혀</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>볼거많아 좋은 날 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  오등복어룡</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>갈비는 못참지</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  채용기</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>현종이 뭔가 파닥몬 닮았다</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  fsda fsd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>오옹 나이스</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  성민 이</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>선응이형 이제 민 머리로 나오는거지??</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  이건우</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>여기에는 아직 머리가 있네...</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  우당탕탕 무깔라</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>최고 최고 최고예요</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  carpe diem</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>김치찜 개마렵네;</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  박성진</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6:57 조지는...?</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  혀니</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>말랭님은 어디가셨나요..?</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  정민이123</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>조지 종이 뭐에요??</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  SH L</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>04:17 조커?</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  최명</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>신스틸러 졸지</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  섭</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>근데 선응이형 머리가 조금 자랐넹 ???? ㅋ..밀어 !!!!</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  조건영</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>괜히봣어 침고여</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  춘32</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  쌔끈한인생</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>여긴 머리가 있네 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  신고</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5:20</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  sang</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>황룡갑 살빠졌나???</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  일본 형주 부인</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0:18????</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  이수진</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>선응이형 머리털 이거 먹고 밀었나보네</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  권태욱</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">좋아요누름   </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  현승이</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>펩시 광고하시네</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  변덕규</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>선응아  머리좀 밀어라..  이상해..</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  도지화성간다</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>머리카락이 있네?</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  혜우주</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>머리…ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  양파리힝</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1등</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  슈퍼토딩</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>200번째 댓글 내꺼</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  권기석</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>호</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  신이</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ㅎㅅㅇ ㅇㄷㄱㄷ</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  호지56</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>못참지</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ᄒᄋᄇᄋ</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ㅎㅅㅇㄷㅊ</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  gogi</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>오</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  뭐사지</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>가요제는 무슨가요제 연습인가요??</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  g5p 123</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김철민</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  하랑 정</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>하튜</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ???</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  호박</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>선응이 오른쪽 제발 좀 안나오게 할 방법없뉴</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  임상현</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ㅈ</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ᄋᄋ</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>현종님 그만쩝쩝대세요</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김자경</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>6분57초부터 안봅니다</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  춘32</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>베댓</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  고냥이</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>현종이형 그만 나오면 안되나</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  엘리트 킴</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
         <is>
           <t>부정</t>
         </is>

--- a/total.xlsx
+++ b/total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a k</t>
+          <t xml:space="preserve">  형주부인</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>아니 진짜 형주님 뭐하시는분이에요 뭔데 요리 진짜 잘함? 쪽갈비 김치찜이랑 쪽갈비 바베큐하는데 거의 주부경력 10년 어머님들급으로 거침없이 양념하고 준비하는거 베테랑 주부님들이랑 모습이 겹쳐서 놀랍네요.. 이게 요섹남인가?</t>
+          <t>송형주 날이 갈수록 귀여워지네 .. ️‍4:18 저절로 웃게 돼 ㅋㅋㅋㅋ ㅜ ㅜ가요제 영상도 얼른 보고싶다 .. 기대중 !</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  형주부인</t>
+          <t xml:space="preserve">  a k</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>송형주 날이 갈수록 귀여워지네 .. ️‍4:18 저절로 웃게 돼 ㅋㅋㅋㅋ ㅜ ㅜ가요제 영상도 얼른 보고싶다 .. 기대중 !</t>
+          <t>아니 진짜 형주님 뭐하시는분이에요 뭔데 요리 진짜 잘함? 쪽갈비 김치찜이랑 쪽갈비 바베큐하는데 거의 주부경력 10년 어머님들급으로 거침없이 양념하고 준비하는거 베테랑 주부님들이랑 모습이 겹쳐서 놀랍네요.. 이게 요섹남인가?</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  황승현</t>
+          <t xml:space="preserve">  Bride of Yeshua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>선응이형은 뭘해줘도 진짜 맛있게먹네</t>
+          <t>오늘은 조지가 분량 다 챙기네ㅋㅋ 형들 말이 없어서</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  MJ</t>
+          <t xml:space="preserve">  황승현</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>저렇게 잘해먹으면 부모님들 진짜 행복할듯</t>
+          <t>선응이형은 뭘해줘도 진짜 맛있게먹네</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이주헌예비신랑</t>
+          <t xml:space="preserve">  IilIliIlilliI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>와 진짜 비주얼 미쳤다ㅠㅠㅠㅠㅠㅠㅠ핫식당 보면서 침 최고로 많이 고인거 같아요••••집가면 등갈비 김치찜 해달라고 해야게써요,,,,,츄베릅</t>
+          <t>핫소스, 배말랭, 황룡갑에 핫식당까지 같은 날 나온 역사적인 날이다</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  댤댤</t>
+          <t xml:space="preserve">  킹성은</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>조지가 엉아들 대신 분량채워주는거봐ㅜㅜ 귀여워</t>
+          <t>제가 드리지않은 쪽갈비네요맛있게 드시는거 보니 기분이 좋습니다 ㅎㅎ다음에 또 기회가 있다면 다른 부위로 준비하지 않겠습니다</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bride of Yeshua</t>
+          <t xml:space="preserve">  이주헌예비신랑</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>오늘은 조지가 분량 다 챙기네ㅋㅋ 형들 말이 없어서</t>
+          <t>와 진짜 비주얼 미쳤다ㅠㅠㅠㅠㅠㅠㅠ핫식당 보면서 침 최고로 많이 고인거 같아요••••집가면 등갈비 김치찜 해달라고 해야게써요,,,,,츄베릅</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  maltesers</t>
+          <t xml:space="preserve">  MJ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>조지 계속 올라오는거 너무 귀엽다!!</t>
+          <t>저렇게 잘해먹으면 부모님들 진짜 행복할듯</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ho seung Jang</t>
+          <t xml:space="preserve">  무말랭</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>형주형 볼때마다계량 안하고 슥슥 넣는거 진짜 신기하다요리 너무 잘해 섹시해</t>
+          <t>등갈비 드실 때 한조각 정도만 아무 간 하지마시고 물에 끓여서 조지 하나만 주세요ㅜ 저희 집 강아지들도 가끔 그렇게 한조각씩 주는데 앞발로 잡고 앞니로 뜯어먹는데 겁나 귀엽습니다…. 조지가 등갈비 먹을 땐 뼈를 삼킬 수 있으니 옆에서 지켜봐주세요-!!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김찬호</t>
+          <t xml:space="preserve">  댤댤</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>이때까지 보면서 뺏아먹고싶다고 생각한적은 없는데 진짜 개맛있겠다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>조지가 엉아들 대신 분량채워주는거봐ㅜㅜ 귀여워</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김찬호</t>
+          <t xml:space="preserve">  Ho seung Jang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>조지 ㅋㅋㅋㅋㅋㅋㅋ 오늘 형들 너무 맛있게 먹는다고 말 없어서 분량 대신 채우네 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>형주형 볼때마다계량 안하고 슥슥 넣는거 진짜 신기하다요리 너무 잘해 섹시해</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  IilIliIlilliI</t>
+          <t xml:space="preserve">  TheBkuser</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>핫소스, 배말랭, 황룡갑에 핫식당까지 같은 날 나온 역사적인 날이다</t>
+          <t>선응이가 맛있는거 먹을때 말안하면 말 많이한건 맛이 없다는거네... ㅠㅠㅠㅠ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  음뫄핫소스만보면심장이뛰어서 잠을못자</t>
+          <t xml:space="preserve">  갓냥이</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>와...진짜맛있겠다,.미틴,.ㅜㅜㅜㅜ 왜 새로 올라올때마다 역대급으로 맛있어보이는거냐구요!ㅜㅜ</t>
+          <t>이반응은 찐인데..조지도 미쳤네</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:08 와 오빠 그거 ㅠㅠ 내가 ㅠㅠ 준 거야 ㅠㅠ 대박 🥹🥹 너무 좋아서 손 떨려 송형주 사랑한다️</t>
+          <t>5:33 맛있다고 눈 크게 뜨고 가리키는 거 진짜 개귀여움 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  인센티브</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>와 핫식당 역대급 비쥬얼이다... 진짜 맛있어보인다ㅜㅜ</t>
+          <t>이때까지 보면서 뺏아먹고싶다고 생각한적은 없는데 진짜 개맛있겠다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  음음</t>
+          <t xml:space="preserve">  송형주의 운명의 여자</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>다음 배말랭 영상 제목팬이 주신 쪽갈비 뼈로 하루 세끼만들기</t>
+          <t>0:08 와 오빠 그거 ㅠㅠ 내가 ㅠㅠ 준 거야 ㅠㅠ 대박 🥹🥹 너무 좋아서 손 떨려 송형주 사랑한다️</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  whtjddnr00</t>
+          <t xml:space="preserve">  maltesers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:47 저거 진짜 맛있었나봄 ㅋㅋㅋ 영혼없이 말하시네 ㅋㅋㅋㅋㅋ 나도 먹고 싶두아 ㅜㅜ</t>
+          <t>조지 계속 올라오는거 너무 귀엽다!!</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  방형욱</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>핫소스유니버스 4개 채널 연속 업로드는 못참아~</t>
+          <t>조지 ㅋㅋㅋㅋㅋㅋㅋ 오늘 형들 너무 맛있게 먹는다고 말 없어서 분량 대신 채우네 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  로나로나</t>
+          <t xml:space="preserve">  음음</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>와 ㅠㅠㅠ조지미쳤어요 너무 귀여워서 계속 조지부분만 돌려보게되네요</t>
+          <t>다음 배말랭 영상 제목팬이 주신 쪽갈비 뼈로 하루 세끼만들기</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ubiquitous</t>
+          <t xml:space="preserve">  인센티브</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>현종이형 왜케 귀엽지…?</t>
+          <t>와 핫식당 역대급 비쥬얼이다... 진짜 맛있어보인다ㅜㅜ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  심준호</t>
+          <t xml:space="preserve">  Black</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>선응이형 맥주에 후추뿌려먹는거 알려주세요 제발요ㅠㅠㅠ</t>
+          <t>핫소스 소시지 가랑이에 끼우고 자르기 몰카 다시보고싶다 ㅠㅠㅠ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태키</t>
+          <t xml:space="preserve">  음뫄핫소스만보면심장이뛰어서 잠을못자</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>핫식당 유니버스엔 아직 선응머리의 온기가... 남아있어.. 역대급 멀티버스;</t>
+          <t>와...진짜맛있겠다,.미틴,.ㅜㅜㅜㅜ 왜 새로 올라올때마다 역대급으로 맛있어보이는거냐구요!ㅜㅜ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  킹성은</t>
+          <t xml:space="preserve">  방형욱</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>제가 드리지않은 쪽갈비네요맛있게 드시는거 보니 기분이 좋습니다 ㅎㅎ다음에 또 기회가 있다면 다른 부위로 준비하지 않겠습니다</t>
+          <t>핫소스유니버스 4개 채널 연속 업로드는 못참아~</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  애옹 미</t>
+          <t xml:space="preserve">  Ubiquitous</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>해성햄 진짜 아가야.. 귀여워..</t>
+          <t>현종이형 왜케 귀엽지…?</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
+          <t xml:space="preserve">  HanYong Lee</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>진짜 먹고 싶다.... 조지기분 알거 같아.</t>
+          <t>황룡갑이랑 동갑인 구독자만 모아서  그 중에서 사연으로 1명 초대해서 황동갑이라는 프로그램 하나만들어서 구독자랑 해성이랑같이 밥먹는 영상 매주 올라오면 재밌겠다</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  크크루삥뽕</t>
+          <t xml:space="preserve">  국그릇핑크뽕</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>쪽갈비 주신분 흐뭇하게 보시겠다</t>
+          <t>형주 음식은 못참지 핡</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김민준</t>
+          <t xml:space="preserve">  임마뭐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>선응이 형 여기선 머리가 있네...행복해보여 좋다...!</t>
+          <t>와 형주햄 요리 진.짜 잘한다</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  경준</t>
+          <t xml:space="preserve">  태키</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>선응이형 ㅋㅋㅋ 김ㅊ 양념 쪽갈비에 묻혀놓고 덜어내는건 모야 ㅋㅋㅋㅋㅋㅋ</t>
+          <t>핫식당 유니버스엔 아직 선응머리의 온기가... 남아있어.. 역대급 멀티버스;</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  아름다운 세상아</t>
+          <t xml:space="preserve">  로나로나</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>말없이 먹는 거만 봐도 재밌긴해 ㅋㅋ</t>
+          <t>와 ㅠㅠㅠ조지미쳤어요 너무 귀여워서 계속 조지부분만 돌려보게되네요</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  송형주의 운명의 여자</t>
+          <t xml:space="preserve">  whtjddnr00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5:33 맛있다고 눈 크게 뜨고 가리키는 거 진짜 개귀여움 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>08:47 저거 진짜 맛있었나봄 ㅋㅋㅋ 영혼없이 말하시네 ㅋㅋㅋㅋㅋ 나도 먹고 싶두아 ㅜㅜ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김수재</t>
+          <t xml:space="preserve">  심준호</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>이거 보고 소맥에 후추 넣었다가 다 먹고 치울 때 까지 후추맛남 ㅋㅋㅋㅋㅋㅋ</t>
+          <t>선응이형 맥주에 후추뿌려먹는거 알려주세요 제발요ㅠㅠㅠ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  어잌후</t>
+          <t xml:space="preserve">  jjajajan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>요리를 거침없이하시네 부럽다</t>
+          <t>맛있게 드시네요..ㅋㅋ요즘 샤로수길에 덮다에서 도전먹방하는 영상 많이 올라오는데핫소스님들도 도전 안하더라도 맛있게 먹는 모습 보고싶네요ㅎㅎ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  민지</t>
+          <t xml:space="preserve">  우클릭</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>귀여워 징챠 다들 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 🫶</t>
+          <t>선응이형 머리밀리기 전이구나... 행복해보이네 ㅎㅎㅎㅎㅎ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김지원</t>
+          <t xml:space="preserve">  민아달려</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>현종이 형도 유튜브 시작했으면 좋겠다....!!!</t>
+          <t>선응형 형주형 해성이형 건우형 현종이형 핫식당 할때 한명씩 안나올때 뭐하는지 궁금해용 오늘은 건우햄이 없으시네용</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  민아달려</t>
+          <t xml:space="preserve">  시기</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>선응형 형주형 해성이형 건우형 현종이형 핫식당 할때 한명씩 안나올때 뭐하는지 궁금해용 오늘은 건우햄이 없으시네용</t>
+          <t xml:space="preserve">아니 형주님이랑 결혼하시는 분 찐 행복할 듯...요리 넘 잘해,, </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김사랑스럽지</t>
+          <t xml:space="preserve">  형주내꺼</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>선응행 맥주 마실 줄 아네 맥주에 후추 넣어 먹으면 은근 맛깄음</t>
+          <t>을매나 맛있으면 조지가 ,, 핫소스분들도 그렇고  다들 잘먹어서 뿌듯하네요</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태지</t>
+          <t xml:space="preserve">  김민준</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6:27역시... 광고할때 너무 재밌고 시끌시끌 너무 맛있게 먹더라</t>
+          <t>선응이 형 여기선 머리가 있네...행복해보여 좋다...!</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조은</t>
+          <t xml:space="preserve">  어잌후</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>괴롭히는만큼 잘해먹이네 ㅋㅋㅋㅋ선응아 부럽다ㅠㅠ</t>
+          <t>요리를 거침없이하시네 부럽다</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  TheBkuser</t>
+          <t xml:space="preserve">  김수재</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>선응이가 맛있는거 먹을때 말안하면 말 많이한건 맛이 없다는거네... ㅠㅠㅠㅠ</t>
+          <t>이거 보고 소맥에 후추 넣었다가 다 먹고 치울 때 까지 후추맛남 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  임마뭐</t>
+          <t xml:space="preserve">  아름다운 세상아</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>와 형주햄 요리 진.짜 잘한다</t>
+          <t>말없이 먹는 거만 봐도 재밌긴해 ㅋㅋ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  juds k</t>
+          <t xml:space="preserve">  경준</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6:32 선응이형 소스를 듬뿍 찍고 다 덜어서 가져가면 무슨 소용이야ㅋㅋㅋㅋㅋ</t>
+          <t>선응이형 ㅋㅋㅋ 김ㅊ 양념 쪽갈비에 묻혀놓고 덜어내는건 모야 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  jkjk</t>
+          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>핫소스 보고 나면 배말랭 올라와 있고 배말랭 다 보면 황룡갑 올라와 있고 마지막 디저트 핫식당 루트 좋다 맛집이야</t>
+          <t>진짜 먹고 싶다.... 조지기분 알거 같아.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Black</t>
+          <t xml:space="preserve">  크크루삥뽕</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>핫소스 소시지 가랑이에 끼우고 자르기 몰카 다시보고싶다 ㅠㅠㅠ</t>
+          <t>쪽갈비 주신분 흐뭇하게 보시겠다</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  시기</t>
+          <t xml:space="preserve">  YUN찬</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">아니 형주님이랑 결혼하시는 분 찐 행복할 듯...요리 넘 잘해,, </t>
+          <t>난 해성이형이 제일좋아 형 행복해야해 형 사랑해!!</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조수용</t>
+          <t xml:space="preserve">  김지원</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>등갈비를 구워서 바로 물이랑 김치 넣고 찜으로 먹으면 굉장히 맛있음.</t>
+          <t>현종이 형도 유튜브 시작했으면 좋겠다....!!!</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  •</t>
+          <t xml:space="preserve">  김사랑스럽지</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>맛과 추억칸에 들어가있네ㅋㅋㅋ ㅋ ㅠㅠ 삽귀다</t>
+          <t>선응행 맥주 마실 줄 아네 맥주에 후추 넣어 먹으면 은근 맛깄음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  형주내꺼</t>
+          <t xml:space="preserve">  애옹 미</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>을매나 맛있으면 조지가 ,, 핫소스분들도 그렇고  다들 잘먹어서 뿌듯하네요</t>
+          <t>해성햄 진짜 아가야.. 귀여워..</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  playerA34</t>
+          <t xml:space="preserve">  조수용</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>이때까지만 해도 선응이 머리 남아있넼ㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>등갈비를 구워서 바로 물이랑 김치 넣고 찜으로 먹으면 굉장히 맛있음.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  YUN찬</t>
+          <t xml:space="preserve">  김서진</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>난 해성이형이 제일좋아 형 행복해야해 형 사랑해!!</t>
+          <t>형주형은 요리할 때가 제일 sexy 해</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  야이젭</t>
+          <t xml:space="preserve">  야옹</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>광고 이렇게하면 좋아하실듯ㅋㅋ 와 마싯게땅</t>
+          <t>현종옹이 안먹어 ~~때문에 밥못먹는즁 왜케귀여우세여</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  jjajajan</t>
+          <t xml:space="preserve">  주찬</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>맛있게 드시네요..ㅋㅋ요즘 샤로수길에 덮다에서 도전먹방하는 영상 많이 올라오는데핫소스님들도 도전 안하더라도 맛있게 먹는 모습 보고싶네요ㅎㅎ</t>
+          <t>형들 곱창 먹어주세여</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우직</t>
+          <t xml:space="preserve">  jkjk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>와 참치액넣는순간 고수라는거느꼈다</t>
+          <t>핫소스 보고 나면 배말랭 올라와 있고 배말랭 다 보면 황룡갑 올라와 있고 마지막 디저트 핫식당 루트 좋다 맛집이야</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무소식이 he so sick.</t>
+          <t xml:space="preserve">  유진</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋ왠지 배말랭이 저 뼈 가져다가 사골국 만들거 같은 불길한 예감...</t>
+          <t>광고보다 맛있게 먹네,,</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ㄱㅟㅇㅁㅣ</t>
+          <t xml:space="preserve">  juds k</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>아닛 오늘은 핫소스 유니버스가 다 모인 날이잖아? 못참아가지고 벌써왔다.</t>
+          <t>6:32 선응이형 소스를 듬뿍 찍고 다 덜어서 가져가면 무슨 소용이야ㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  gp 0321</t>
+          <t xml:space="preserve">  태지</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>이 쪽갈비가 드디어 나오네</t>
+          <t>6:27역시... 광고할때 너무 재밌고 시끌시끌 너무 맛있게 먹더라</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  돼지적금통</t>
+          <t xml:space="preserve">  우직</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>김선응 일본인 황룡갑 중국인 조지 영국견 ㄹㅇ 다문화 가족ㅋㅋ</t>
+          <t>와 참치액넣는순간 고수라는거느꼈다</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  키티키티</t>
+          <t xml:space="preserve">  Fortuito_us</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>멍멍레이더 존귀♡</t>
+          <t>이때는 선응이형 머리카락이 있었구나</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  재성</t>
+          <t xml:space="preserve">  Y MOMMA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>조지 귀여웡</t>
+          <t>요리 잘하는거같아 눈대중으로 넣는거보니</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Fortuito_us</t>
+          <t xml:space="preserve">  playerA34</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>이때는 선응이형 머리카락이 있었구나</t>
+          <t>이때까지만 해도 선응이 머리 남아있넼ㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유중혁</t>
+          <t xml:space="preserve">  조은</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>이제 건우형이 저 남은뼈로 사골우려서 세끼 먹으면 되겠네</t>
+          <t>괴롭히는만큼 잘해먹이네 ㅋㅋㅋㅋ선응아 부럽다ㅠㅠ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  앞날창창 도그 (민제)</t>
+          <t xml:space="preserve">  퍽끼럽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6:20 선응이형 하정우님 느낌있네 ㅋㅋㅋ</t>
+          <t>현종이형 보면 볼수록 박명수 젊었을때같음..</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  아으</t>
+          <t xml:space="preserve">  •</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>핫소스 배말랭 황룡갑 핫식당이 하루에 다 나오다니 이건 생일인가?</t>
+          <t>맛과 추억칸에 들어가있네ㅋㅋㅋ ㅋ ㅠㅠ 삽귀다</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태리</t>
+          <t xml:space="preserve">  민지</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>코파먹는거라도 상관없으니까 1일 1영상 줘</t>
+          <t>귀여워 징챠 다들 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 🫶</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우클릭</t>
+          <t xml:space="preserve">  돼지적금통</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>선응이형 머리밀리기 전이구나... 행복해보이네 ㅎㅎㅎㅎㅎ</t>
+          <t>김선응 일본인 황룡갑 중국인 조지 영국견 ㄹㅇ 다문화 가족ㅋㅋ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  HanYong Lee</t>
+          <t xml:space="preserve">  빅사이즈백살공주🌸</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>황룡갑이랑 동갑인 구독자만 모아서  그 중에서 사연으로 1명 초대해서 황동갑이라는 프로그램 하나만들어서 구독자랑 해성이랑같이 밥먹는 영상 매주 올라오면 재밌겠다</t>
+          <t>너뮤너뮤 좋아유 핫소스 유니버스 사랑한다규</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  휘동이</t>
+          <t xml:space="preserve">  Yeeun Lee</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>쏜엥쥬 착착 감기네ㅋㅋㅋ엥쥬언니(?) 엥쥬누나(?)</t>
+          <t>맛있겠다 ㅠ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  S W LEEM</t>
+          <t xml:space="preserve">  유중혁</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>건우가없으니까 해성이 하고 상황극이 없네 ㅋㅋㅋㅋ</t>
+          <t>이제 건우형이 저 남은뼈로 사골우려서 세끼 먹으면 되겠네</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  san</t>
+          <t xml:space="preserve">  앞날창창 도그 (민제)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1:54누가 뿌셔뿌셔 바베큐맛을 다 먹어서 다행이다.</t>
+          <t>6:20 선응이형 하정우님 느낌있네 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  B B</t>
+          <t xml:space="preserve">  ㄱㅟㅇㅁㅣ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>어우 비주얼 역대급이다…</t>
+          <t>아닛 오늘은 핫소스 유니버스가 다 모인 날이잖아? 못참아가지고 벌써왔다.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무말랭</t>
+          <t xml:space="preserve">  태리</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>등갈비 드실 때 한조각 정도만 아무 간 하지마시고 물에 끓여서 조지 하나만 주세요ㅜ 저희 집 강아지들도 가끔 그렇게 한조각씩 주는데 앞발로 잡고 앞니로 뜯어먹는데 겁나 귀엽습니다…. 조지가 등갈비 먹을 땐 뼈를 삼킬 수 있으니 옆에서 지켜봐주세요-!!</t>
+          <t>코파먹는거라도 상관없으니까 1일 1영상 줘</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  단백질바</t>
+          <t xml:space="preserve">  toleta de parretto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>역시 재밌누</t>
+          <t>이제 저걸로 사골 끓일 배말랭 출동</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  빅사이즈백살공주🌸</t>
+          <t xml:space="preserve">  아으</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>너뮤너뮤 좋아유 핫소스 유니버스 사랑한다규</t>
+          <t>핫소스 배말랭 황룡갑 핫식당이 하루에 다 나오다니 이건 생일인가?</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  최다음</t>
+          <t xml:space="preserve">  야이젭</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>선응이형 머머리 쪽 ️</t>
+          <t>광고 이렇게하면 좋아하실듯ㅋㅋ 와 마싯게땅</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  지나가는 행인</t>
+          <t xml:space="preserve">  무소식이 he so sick.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>선응씨 故머리카락의 생전 개쩌는모습을 관람하도록 하겠습니다..</t>
+          <t>ㅋㅋㅋㅋ왠지 배말랭이 저 뼈 가져다가 사골국 만들거 같은 불길한 예감...</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  갓냥이</t>
+          <t xml:space="preserve">  재성</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>이반응은 찐인데..조지도 미쳤네</t>
+          <t>조지 귀여웡</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  윈도우</t>
+          <t xml:space="preserve">  키티키티</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>핫소스에 배말랭에 핫식당 황룡갑이건못참취~</t>
+          <t>멍멍레이더 존귀♡</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  애옹 미</t>
+          <t xml:space="preserve">  S W LEEM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>오늘 쏭엥쥬햄 머리 복실복실 기욥다 ㅎㅎ</t>
+          <t>건우가없으니까 해성이 하고 상황극이 없네 ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Yeeun Lee</t>
+          <t xml:space="preserve">  gp 0321</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>맛있겠다 ㅠ</t>
+          <t>이 쪽갈비가 드디어 나오네</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ki kiki</t>
+          <t xml:space="preserve">  B B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>샐러드 먹고있는데 현타오네 ㅠㅠ</t>
+          <t>어우 비주얼 역대급이다…</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2076,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김서진</t>
+          <t xml:space="preserve">  지나가는 행인</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>형주형은 요리할 때가 제일 sexy 해</t>
+          <t>선응씨 故머리카락의 생전 개쩌는모습을 관람하도록 하겠습니다..</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  송형주 와이프</t>
+          <t xml:space="preserve">  mom Chan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>일본인은 아니고 일반인인데 괜찮니 형주야?</t>
+          <t>혜성이 요즘 미모 무슨 일이지 왜 잘생겨보이지 왜그런거지</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  야옹</t>
+          <t xml:space="preserve">  애옹 미</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>현종옹이 안먹어 ~~때문에 밥못먹는즁 왜케귀여우세여</t>
+          <t>오늘 쏭엥쥬햄 머리 복실복실 기욥다 ㅎㅎ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이원준</t>
+          <t xml:space="preserve">  냄새 예비 부인</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>잉 형주오빠 너무좋아</t>
+          <t>오빠들 이러면 광고 안들어와...</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김하준</t>
+          <t xml:space="preserve">  ki kiki</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>핫소스 유니버스를 다보니까 좋다고 하는댯글이 많을것이다</t>
+          <t>샐러드 먹고있는데 현타오네 ㅠㅠ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  song</t>
+          <t xml:space="preserve">  san</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>맥주에 후추라.. 청양고추 넣은 소주 그런 느낌인가..?</t>
+          <t>1:54누가 뿌셔뿌셔 바베큐맛을 다 먹어서 다행이다.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  주찬</t>
+          <t xml:space="preserve">  Hahahahaha89</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>형들 곱창 먹어주세여</t>
+          <t>룡갑이가  조지 자리 뺏었다</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  닉네임</t>
+          <t xml:space="preserve">  최다음</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>조촐한 불닭김밥와 쪽갈비 교환</t>
+          <t>선응이형 머머리 쪽 ️</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무냫</t>
+          <t xml:space="preserve">  윈도우</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>김치찜 다진마늘 어디 갔어ㅠㅠ</t>
+          <t>핫소스에 배말랭에 핫식당 황룡갑이건못참취~</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  또비</t>
+          <t xml:space="preserve">  조지와싱톤</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>조지도 생갈비 하나 주지….</t>
+          <t>선응이머리 이때는 정상이네</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  나다요</t>
+          <t xml:space="preserve">  휘동이</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>굿즈 꼭살거야</t>
+          <t>쏜엥쥬 착착 감기네ㅋㅋㅋ엥쥬언니(?) 엥쥬누나(?)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유진</t>
+          <t xml:space="preserve">  또비</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>광고보다 맛있게 먹네,,</t>
+          <t>조지도 생갈비 하나 주지….</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  mom Chan</t>
+          <t xml:space="preserve">  이원준</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>혜성이 요즘 미모 무슨 일이지 왜 잘생겨보이지 왜그런거지</t>
+          <t>잉 형주오빠 너무좋아</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  프림포즈</t>
+          <t xml:space="preserve">  송형주 와이프</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>아 침고여 ㅋㅋㅋ</t>
+          <t>일본인은 아니고 일반인인데 괜찮니 형주야?</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  toleta de parretto</t>
+          <t xml:space="preserve">  carpe diem</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>이제 저걸로 사골 끓일 배말랭 출동</t>
+          <t>김치찜 개마렵네;</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  맛보기</t>
+          <t xml:space="preserve">  단백질바</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>해성이먹는거 진짜 중국부자같네</t>
+          <t>역시 재밌누</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김영광</t>
+          <t xml:space="preserve">  오등복어룡</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>형 머리 밀렸는데 괜찮아????…</t>
+          <t>갈비는 못참지</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  국그릇핑크뽕</t>
+          <t xml:space="preserve">  지원</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>형주 음식은 못참지 핡</t>
+          <t>현종이형 박명수 젊을때 닮았어</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유튜</t>
+          <t xml:space="preserve">  song</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>팬이 주신 거 이랬는데 아 그래~? 가 끝이야?ㅋㅋ</t>
+          <t>맥주에 후추라.. 청양고추 넣은 소주 그런 느낌인가..?</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">  퍽끼럽</t>
+          <t xml:space="preserve">  맛보기</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>현종이형 보면 볼수록 박명수 젊었을때같음..</t>
+          <t>해성이먹는거 진짜 중국부자같네</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Y MOMMA</t>
+          <t xml:space="preserve">  김하준</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>요리 잘하는거같아 눈대중으로 넣는거보니</t>
+          <t>핫소스 유니버스를 다보니까 좋다고 하는댯글이 많을것이다</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">  핫한 쇼츠 정보들 모음</t>
+          <t xml:space="preserve">  서무진</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>현종이형 유튜버 워커님 닮은듯 ㅋㅋㅋㅎ</t>
+          <t>말랭이형 못 먹은거야..??</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조지와싱톤</t>
+          <t xml:space="preserve">  이수진</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>선응이머리 이때는 정상이네</t>
+          <t>선응이형 머리털 이거 먹고 밀었나보네</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">  채원</t>
+          <t xml:space="preserve">  채용기</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>맥주에 후추를?..??????</t>
+          <t>현종이 뭔가 파닥몬 닮았다</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유너니</t>
+          <t xml:space="preserve">  닉네임</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>조촐한 불닭김밥와 쪽갈비 교환</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">  문원</t>
+          <t xml:space="preserve">  현지</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9:01 조지ㅠㅠㅠ</t>
+          <t>보면 볼 수록 현종쓰랑 조지랑 닮은거같은건 기분탓인가</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">  왕자림</t>
+          <t xml:space="preserve">  섭</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>송형주 섹시하다 사랑해️</t>
+          <t>근데 선응이형 머리가 조금 자랐넹 ???? ㅋ..밀어 !!!!</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">  bin08</t>
+          <t xml:space="preserve">  오리목뼈먹자는말에신난랄로쉐</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TMI-해성이 가요제 준비중!</t>
+          <t>조지 줄꺼면 그냥 대충 하나 따로 몇개 꺼내서 삶아서 조지주지 자기들만 입이여 ~</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ㅋ</t>
+          <t xml:space="preserve">  무냫</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>언제 먹나 했네ㅋ 기다렸잖아</t>
+          <t>김치찜 다진마늘 어디 갔어ㅠㅠ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">  은우 오빠 바라기</t>
+          <t xml:space="preserve">  나다요</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4:12 ㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅋㅎㅋㅎ</t>
+          <t>굿즈 꼭살거야</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">  오리목뼈먹자는말에신난랄로쉐</t>
+          <t xml:space="preserve">  핫한 쇼츠 정보들 모음</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>조지 줄꺼면 그냥 대충 하나 따로 몇개 꺼내서 삶아서 조지주지 자기들만 입이여 ~</t>
+          <t>현종이형 유튜버 워커님 닮은듯 ㅋㅋㅋㅎ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄋᄋ</t>
+          <t xml:space="preserve">  프림포즈</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:56 귀신나옴 ㄹㅇ</t>
+          <t>아 침고여 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">  하마궁뎅이</t>
+          <t xml:space="preserve">  성민 이</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>볼 때마다 다라라라라 하는 브금이 너무 무서워요..ㅠ</t>
+          <t>선응이형 이제 민 머리로 나오는거지??</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">  바비</t>
+          <t xml:space="preserve">  ㅋ</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>여러분 제 닉넴 추천받아요~!선응부인 선응머리카락 선응김치 선응철딱서니선응셔틀 선응떡 조지부인 선응조지"기"사랑해</t>
+          <t>언제 먹나 했네ㅋ 기다렸잖아</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sujin C</t>
+          <t xml:space="preserve">  김영광</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>와 미치짜</t>
+          <t>형 머리 밀렸는데 괜찮아????…</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hahahahaha89</t>
+          <t xml:space="preserve">  유튜</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>룡갑이가  조지 자리 뺏었다</t>
+          <t>팬이 주신 거 이랬는데 아 그래~? 가 끝이야?ㅋㅋ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">  지원</t>
+          <t xml:space="preserve">  꽃지</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>현종이형 박명수 젊을때 닮았어</t>
+          <t>해성이 살빠진거 같네?!</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2816,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jungwon HWANG</t>
+          <t xml:space="preserve">  바비</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>핫데이다!</t>
+          <t>여러분 제 닉넴 추천받아요~!선응부인 선응머리카락 선응김치 선응철딱서니선응셔틀 선응떡 조지부인 선응조지"기"사랑해</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">  꽃지</t>
+          <t xml:space="preserve">  Sujin C</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>해성이 살빠진거 같네?!</t>
+          <t>와 미치짜</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">  바보 듀댜</t>
+          <t xml:space="preserve">  bin08</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>쪽~♡</t>
+          <t>TMI-해성이 가요제 준비중!</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">  현지</t>
+          <t xml:space="preserve">  채원</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>보면 볼 수록 현종쓰랑 조지랑 닮은거같은건 기분탓인가</t>
+          <t>맥주에 후추를?..??????</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우리들의구글생활</t>
+          <t xml:space="preserve">  호박</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>오늘도 출첵!!!!!</t>
+          <t>선응이 오른쪽 제발 좀 안나오게 할 방법없뉴</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">  서무진</t>
+          <t xml:space="preserve">  문원</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>말랭이형 못 먹은거야..??</t>
+          <t>9:01 조지ㅠㅠㅠ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">  코박사</t>
+          <t xml:space="preserve">  유너니</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>조지 먹을뼈가 많겠네요 ㅎㅎ</t>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">  에혀</t>
+          <t xml:space="preserve">  조상익</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>볼거많아 좋은 날 ㅎㅎ</t>
+          <t>다들 군대취사반 출신들이신가?</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">  오등복어룡</t>
+          <t xml:space="preserve">  은우 오빠 바라기</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>갈비는 못참지</t>
+          <t>4:12 ㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅋㅎㅋㅎ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">  채용기</t>
+          <t xml:space="preserve">  하마궁뎅이</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>현종이 뭔가 파닥몬 닮았다</t>
+          <t>볼 때마다 다라라라라 하는 브금이 너무 무서워요..ㅠ</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">  fsda fsd</t>
+          <t xml:space="preserve">  혀니</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>오옹 나이스</t>
+          <t>말랭님은 어디가셨나요..?</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">  성민 이</t>
+          <t xml:space="preserve">  fsda fsd</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>선응이형 이제 민 머리로 나오는거지??</t>
+          <t>오옹 나이스</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이건우</t>
+          <t xml:space="preserve">  ᄋᄋ</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>여기에는 아직 머리가 있네...</t>
+          <t>3:56 귀신나옴 ㄹㅇ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우당탕탕 무깔라</t>
+          <t xml:space="preserve">  왕자림</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>최고 최고 최고예요</t>
+          <t>송형주 섹시하다 사랑해️</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">  carpe diem</t>
+          <t xml:space="preserve">  고냥이</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>김치찜 개마렵네;</t>
+          <t>현종이형 그만 나오면 안되나</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">  박성진</t>
+          <t xml:space="preserve">  코박사</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6:57 조지는...?</t>
+          <t>조지 먹을뼈가 많겠네요 ㅎㅎ</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">  혀니</t>
+          <t xml:space="preserve">  조건영</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>말랭님은 어디가셨나요..?</t>
+          <t>괜히봣어 침고여</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">  정민이123</t>
+          <t xml:space="preserve">  최명</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>조지 종이 뭐에요??</t>
+          <t>신스틸러 졸지</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3176,12 +3176,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SH L</t>
+          <t xml:space="preserve">  뭐사지</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>04:17 조커?</t>
+          <t>가요제는 무슨가요제 연습인가요??</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">  최명</t>
+          <t xml:space="preserve">  권태욱</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>신스틸러 졸지</t>
+          <t xml:space="preserve">좋아요누름   </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3216,17 +3216,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  섭</t>
+          <t xml:space="preserve">  Jungwon HWANG</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>근데 선응이형 머리가 조금 자랐넹 ???? ㅋ..밀어 !!!!</t>
+          <t>핫데이다!</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조건영</t>
+          <t xml:space="preserve">  바보 듀댜</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>괜히봣어 침고여</t>
+          <t>쪽~♡</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">  춘32</t>
+          <t xml:space="preserve">  우리들의구글생활</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋ</t>
+          <t>오늘도 출첵!!!!!</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3276,12 +3276,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">  쌔끈한인생</t>
+          <t xml:space="preserve">  정민이123</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>여긴 머리가 있네 ㅋㅋ</t>
+          <t>조지 종이 뭐에요??</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">  신고</t>
+          <t xml:space="preserve">  우당탕탕 무깔라</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>최고 최고 최고예요</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">  sang</t>
+          <t xml:space="preserve">  변덕규</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>황룡갑 살빠졌나???</t>
+          <t>선응아  머리좀 밀어라..  이상해..</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">  일본 형주 부인</t>
+          <t xml:space="preserve">  sang</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0:18????</t>
+          <t>황룡갑 살빠졌나???</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3356,17 +3356,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이수진</t>
+          <t xml:space="preserve">  이건우</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>선응이형 머리털 이거 먹고 밀었나보네</t>
+          <t>여기에는 아직 머리가 있네...</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">  권태욱</t>
+          <t xml:space="preserve">  에혀</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">좋아요누름   </t>
+          <t>볼거많아 좋은 날 ㅎㅎ</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">  현승이</t>
+          <t xml:space="preserve">  박성진</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>펩시 광고하시네</t>
+          <t>6:57 조지는...?</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">  변덕규</t>
+          <t xml:space="preserve">  신고</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>선응아  머리좀 밀어라..  이상해..</t>
+          <t>5:20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">  도지화성간다</t>
+          <t xml:space="preserve">  일본 형주 부인</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>머리카락이 있네?</t>
+          <t>0:18????</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3456,17 +3456,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">  혜우주</t>
+          <t xml:space="preserve">  춘32</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>머리…ㅠㅠ</t>
+          <t>ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">  양파리힝</t>
+          <t xml:space="preserve">  호지56</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1등</t>
+          <t>못참지</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">  슈퍼토딩</t>
+          <t xml:space="preserve">  SH L</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>200번째 댓글 내꺼</t>
+          <t>04:17 조커?</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">  권기석</t>
+          <t xml:space="preserve">  현승이</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>호</t>
+          <t>펩시 광고하시네</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">  신이</t>
+          <t xml:space="preserve">  쌔끈한인생</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ㅎㅅㅇ ㅇㄷㄱㄷ</t>
+          <t>여긴 머리가 있네 ㅋㅋ</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">  호지56</t>
+          <t xml:space="preserve">  ᄋᄋ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>못참지</t>
+          <t>현종님 그만쩝쩝대세요</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄒᄋᄇᄋ</t>
+          <t xml:space="preserve">  도지화성간다</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ㅎㅅㅇㄷㅊ</t>
+          <t>머리카락이 있네?</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  gogi</t>
+          <t xml:space="preserve">  춘32</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>오</t>
+          <t>베댓</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">  뭐사지</t>
+          <t xml:space="preserve">  슈퍼토딩</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>가요제는 무슨가요제 연습인가요??</t>
+          <t>200번째 댓글 내꺼</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3636,12 +3636,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">  g5p 123</t>
+          <t xml:space="preserve">  김자경</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ㄷ</t>
+          <t>6분57초부터 안봅니다</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김철민</t>
+          <t xml:space="preserve">  g5p 123</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ㄷ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">  하랑 정</t>
+          <t xml:space="preserve">  혜우주</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>하튜</t>
+          <t>머리…ㅠㅠ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ???</t>
+          <t xml:space="preserve">  양파리힝</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1등</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">  호박</t>
+          <t xml:space="preserve">  권기석</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>선응이 오른쪽 제발 좀 안나오게 할 방법없뉴</t>
+          <t>호</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">  임상현</t>
+          <t xml:space="preserve">  신이</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ㅈ</t>
+          <t>ㅎㅅㅇ ㅇㄷㄱㄷ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄋᄋ</t>
+          <t xml:space="preserve">  ᄒᄋᄇᄋ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>현종님 그만쩝쩝대세요</t>
+          <t>ㅎㅅㅇㄷㅊ</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김자경</t>
+          <t xml:space="preserve">  gogi</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>6분57초부터 안봅니다</t>
+          <t>오</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">  춘32</t>
+          <t xml:space="preserve">  임상현</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>베댓</t>
+          <t>ㅈ</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  고냥이</t>
+          <t xml:space="preserve">  엘리트 킴</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>현종이형 그만 나오면 안되나</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3836,15 +3836,55 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  엘리트 킴</t>
+          <t xml:space="preserve">  ???</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  하랑 정</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>하튜</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김철민</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>부정</t>
         </is>
